--- a/checkwork/t.xlsx
+++ b/checkwork/t.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py_auto_study\checkwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE185A00-C491-4BC4-A3C2-8D2E778E55F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC3E997-7A43-4491-AB08-781760D30C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,9 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -409,7 +412,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -418,7 +421,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
     </row>
@@ -426,7 +429,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -434,7 +437,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -442,7 +445,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -450,7 +453,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -458,7 +461,7 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -466,7 +469,7 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -474,7 +477,7 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -482,7 +485,7 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -490,7 +493,7 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
